--- a/stats/example.xlsx
+++ b/stats/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Evan/GitProjects/website/stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1D836C-28CE-4E4B-B286-512A132D1F7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{021EAB05-6FB1-9C40-8FF4-2BBEAE89DAA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{ECD06B04-125A-C44E-8629-FC4EFA48EA45}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Test2</t>
   </si>
@@ -68,14 +68,54 @@
   </si>
   <si>
     <t>AB</t>
+  </si>
+  <si>
+    <t>DO NOT PUT DATA, NOTES, OR ANYTHING ELSE OVER HERE.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The system will look at the farthest right and down </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>any</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> cell is filled in.</t>
+    </r>
+  </si>
+  <si>
+    <t>So all of this would result in sampling rows 2-11 and columns A-H.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -103,8 +143,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,19 +460,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD27E087-6F40-664E-AD25-2BA367E13F26}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -448,7 +490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>1</v>
       </c>
@@ -465,7 +507,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>2</v>
       </c>
@@ -482,7 +524,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>3</v>
       </c>
@@ -497,6 +539,21 @@
       </c>
       <c r="E4" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="H9" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="H11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
